--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.32035108919994</v>
+        <v>2.105309333333333</v>
       </c>
       <c r="H2">
-        <v>1.32035108919994</v>
+        <v>6.315928</v>
       </c>
       <c r="I2">
-        <v>0.09070514466207082</v>
+        <v>0.1253156463506908</v>
       </c>
       <c r="J2">
-        <v>0.09070514466207082</v>
+        <v>0.1253156463506908</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.279461510055578</v>
+        <v>0.03061966666666667</v>
       </c>
       <c r="N2">
-        <v>0.279461510055578</v>
+        <v>0.091859</v>
       </c>
       <c r="O2">
-        <v>0.6143868444166506</v>
+        <v>0.04788163422745326</v>
       </c>
       <c r="P2">
-        <v>0.6143868444166506</v>
+        <v>0.04788163422745326</v>
       </c>
       <c r="Q2">
-        <v>0.3689873091913424</v>
+        <v>0.0644638700168889</v>
       </c>
       <c r="R2">
-        <v>0.3689873091913424</v>
+        <v>0.580174830152</v>
       </c>
       <c r="S2">
-        <v>0.05572804760128549</v>
+        <v>0.006000317941540665</v>
       </c>
       <c r="T2">
-        <v>0.05572804760128549</v>
+        <v>0.006000317941540666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.32035108919994</v>
+        <v>2.105309333333333</v>
       </c>
       <c r="H3">
-        <v>1.32035108919994</v>
+        <v>6.315928</v>
       </c>
       <c r="I3">
-        <v>0.09070514466207082</v>
+        <v>0.1253156463506908</v>
       </c>
       <c r="J3">
-        <v>0.09070514466207082</v>
+        <v>0.1253156463506908</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.175400947686208</v>
+        <v>0.3195506666666667</v>
       </c>
       <c r="N3">
-        <v>0.175400947686208</v>
+        <v>0.9586520000000001</v>
       </c>
       <c r="O3">
-        <v>0.3856131555833494</v>
+        <v>0.499698716679003</v>
       </c>
       <c r="P3">
-        <v>0.3856131555833494</v>
+        <v>0.499698716679003</v>
       </c>
       <c r="Q3">
-        <v>0.2315908323241864</v>
+        <v>0.6727530010062224</v>
       </c>
       <c r="R3">
-        <v>0.2315908323241864</v>
+        <v>6.054777009056001</v>
       </c>
       <c r="S3">
-        <v>0.03497709706078533</v>
+        <v>0.06262006766123997</v>
       </c>
       <c r="T3">
-        <v>0.03497709706078533</v>
+        <v>0.06262006766123998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.21685874239457</v>
+        <v>2.105309333333333</v>
       </c>
       <c r="H4">
-        <v>6.21685874239457</v>
+        <v>6.315928</v>
       </c>
       <c r="I4">
-        <v>0.4270841870659206</v>
+        <v>0.1253156463506908</v>
       </c>
       <c r="J4">
-        <v>0.4270841870659206</v>
+        <v>0.1253156463506908</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.279461510055578</v>
+        <v>0.2893163333333333</v>
       </c>
       <c r="N4">
-        <v>0.279461510055578</v>
+        <v>0.867949</v>
       </c>
       <c r="O4">
-        <v>0.6143868444166506</v>
+        <v>0.4524196490935437</v>
       </c>
       <c r="P4">
-        <v>0.6143868444166506</v>
+        <v>0.4524196490935438</v>
       </c>
       <c r="Q4">
-        <v>1.737372731951808</v>
+        <v>0.6091003768524446</v>
       </c>
       <c r="R4">
-        <v>1.737372731951808</v>
+        <v>5.481903391672001</v>
       </c>
       <c r="S4">
-        <v>0.2623949059916815</v>
+        <v>0.05669526074791015</v>
       </c>
       <c r="T4">
-        <v>0.2623949059916815</v>
+        <v>0.05669526074791017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,433 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.21685874239457</v>
+        <v>6.243382666666666</v>
       </c>
       <c r="H5">
-        <v>6.21685874239457</v>
+        <v>18.730148</v>
       </c>
       <c r="I5">
-        <v>0.4270841870659206</v>
+        <v>0.3716287777289573</v>
       </c>
       <c r="J5">
-        <v>0.4270841870659206</v>
+        <v>0.3716287777289574</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.175400947686208</v>
+        <v>0.03061966666666667</v>
       </c>
       <c r="N5">
-        <v>0.175400947686208</v>
+        <v>0.091859</v>
       </c>
       <c r="O5">
-        <v>0.3856131555833494</v>
+        <v>0.04788163422745326</v>
       </c>
       <c r="P5">
-        <v>0.3856131555833494</v>
+        <v>0.04788163422745326</v>
       </c>
       <c r="Q5">
-        <v>1.090442915047295</v>
+        <v>0.1911702961257778</v>
       </c>
       <c r="R5">
-        <v>1.090442915047295</v>
+        <v>1.720532665132</v>
       </c>
       <c r="S5">
-        <v>0.1646892810742391</v>
+        <v>0.01779419320361346</v>
       </c>
       <c r="T5">
-        <v>0.1646892810742391</v>
+        <v>0.01779419320361347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.277516173474607</v>
+        <v>6.243382666666666</v>
       </c>
       <c r="H6">
-        <v>0.277516173474607</v>
+        <v>18.730148</v>
       </c>
       <c r="I6">
-        <v>0.01906473578654864</v>
+        <v>0.3716287777289573</v>
       </c>
       <c r="J6">
-        <v>0.01906473578654864</v>
+        <v>0.3716287777289574</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.279461510055578</v>
+        <v>0.3195506666666667</v>
       </c>
       <c r="N6">
-        <v>0.279461510055578</v>
+        <v>0.9586520000000001</v>
       </c>
       <c r="O6">
-        <v>0.6143868444166506</v>
+        <v>0.499698716679003</v>
       </c>
       <c r="P6">
-        <v>0.6143868444166506</v>
+        <v>0.499698716679003</v>
       </c>
       <c r="Q6">
-        <v>0.07755508890405942</v>
+        <v>1.995077093388445</v>
       </c>
       <c r="R6">
-        <v>0.07755508890405942</v>
+        <v>17.955693840496</v>
       </c>
       <c r="S6">
-        <v>0.01171312285953481</v>
+        <v>0.1857024233121464</v>
       </c>
       <c r="T6">
-        <v>0.01171312285953481</v>
+        <v>0.1857024233121465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.277516173474607</v>
+        <v>6.243382666666666</v>
       </c>
       <c r="H7">
-        <v>0.277516173474607</v>
+        <v>18.730148</v>
       </c>
       <c r="I7">
-        <v>0.01906473578654864</v>
+        <v>0.3716287777289573</v>
       </c>
       <c r="J7">
-        <v>0.01906473578654864</v>
+        <v>0.3716287777289574</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.175400947686208</v>
+        <v>0.2893163333333333</v>
       </c>
       <c r="N7">
-        <v>0.175400947686208</v>
+        <v>0.867949</v>
       </c>
       <c r="O7">
-        <v>0.3856131555833494</v>
+        <v>0.4524196490935437</v>
       </c>
       <c r="P7">
-        <v>0.3856131555833494</v>
+        <v>0.4524196490935438</v>
       </c>
       <c r="Q7">
-        <v>0.04867659982569617</v>
+        <v>1.806312580716889</v>
       </c>
       <c r="R7">
-        <v>0.04867659982569617</v>
+        <v>16.256813226452</v>
       </c>
       <c r="S7">
-        <v>0.007351612927013828</v>
+        <v>0.1681321612131974</v>
       </c>
       <c r="T7">
-        <v>0.007351612927013828</v>
+        <v>0.1681321612131975</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.650015476009464</v>
+        <v>0.324794</v>
       </c>
       <c r="H8">
-        <v>0.650015476009464</v>
+        <v>0.974382</v>
       </c>
       <c r="I8">
-        <v>0.0446545985126953</v>
+        <v>0.01933291673408544</v>
       </c>
       <c r="J8">
-        <v>0.0446545985126953</v>
+        <v>0.01933291673408544</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.279461510055578</v>
+        <v>0.03061966666666667</v>
       </c>
       <c r="N8">
-        <v>0.279461510055578</v>
+        <v>0.091859</v>
       </c>
       <c r="O8">
-        <v>0.6143868444166506</v>
+        <v>0.04788163422745326</v>
       </c>
       <c r="P8">
-        <v>0.6143868444166506</v>
+        <v>0.04788163422745326</v>
       </c>
       <c r="Q8">
-        <v>0.1816543064851001</v>
+        <v>0.009945084015333332</v>
       </c>
       <c r="R8">
-        <v>0.1816543064851001</v>
+        <v>0.08950575613799999</v>
       </c>
       <c r="S8">
-        <v>0.02743519786890732</v>
+        <v>0.0009256916476112892</v>
       </c>
       <c r="T8">
-        <v>0.02743519786890732</v>
+        <v>0.0009256916476112894</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.650015476009464</v>
+        <v>0.324794</v>
       </c>
       <c r="H9">
-        <v>0.650015476009464</v>
+        <v>0.974382</v>
       </c>
       <c r="I9">
-        <v>0.0446545985126953</v>
+        <v>0.01933291673408544</v>
       </c>
       <c r="J9">
-        <v>0.0446545985126953</v>
+        <v>0.01933291673408544</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.175400947686208</v>
+        <v>0.3195506666666667</v>
       </c>
       <c r="N9">
-        <v>0.175400947686208</v>
+        <v>0.9586520000000001</v>
       </c>
       <c r="O9">
-        <v>0.3856131555833494</v>
+        <v>0.499698716679003</v>
       </c>
       <c r="P9">
-        <v>0.3856131555833494</v>
+        <v>0.499698716679003</v>
       </c>
       <c r="Q9">
-        <v>0.1140133305027616</v>
+        <v>0.1037881392293333</v>
       </c>
       <c r="R9">
-        <v>0.1140133305027616</v>
+        <v>0.934093253064</v>
       </c>
       <c r="S9">
-        <v>0.01721940064378797</v>
+        <v>0.009660633681684514</v>
       </c>
       <c r="T9">
-        <v>0.01721940064378797</v>
+        <v>0.009660633681684516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.09177671994532</v>
+        <v>0.324794</v>
       </c>
       <c r="H10">
-        <v>6.09177671994532</v>
+        <v>0.974382</v>
       </c>
       <c r="I10">
-        <v>0.4184913339727646</v>
+        <v>0.01933291673408544</v>
       </c>
       <c r="J10">
-        <v>0.4184913339727646</v>
+        <v>0.01933291673408544</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.279461510055578</v>
+        <v>0.2893163333333333</v>
       </c>
       <c r="N10">
-        <v>0.279461510055578</v>
+        <v>0.867949</v>
       </c>
       <c r="O10">
-        <v>0.6143868444166506</v>
+        <v>0.4524196490935437</v>
       </c>
       <c r="P10">
-        <v>0.6143868444166506</v>
+        <v>0.4524196490935438</v>
       </c>
       <c r="Q10">
-        <v>1.702417121077335</v>
+        <v>0.09396820916866666</v>
       </c>
       <c r="R10">
-        <v>1.702417121077335</v>
+        <v>0.8457138825179999</v>
       </c>
       <c r="S10">
-        <v>0.2571155700952414</v>
+        <v>0.008746591404789632</v>
       </c>
       <c r="T10">
-        <v>0.2571155700952414</v>
+        <v>0.008746591404789636</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6689663333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.006899</v>
+      </c>
+      <c r="I11">
+        <v>0.03981930214301921</v>
+      </c>
+      <c r="J11">
+        <v>0.03981930214301921</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.03061966666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.091859</v>
+      </c>
+      <c r="O11">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="P11">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="Q11">
+        <v>0.02048352613788889</v>
+      </c>
+      <c r="R11">
+        <v>0.184351735241</v>
+      </c>
+      <c r="S11">
+        <v>0.001906613260404492</v>
+      </c>
+      <c r="T11">
+        <v>0.001906613260404492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6689663333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.006899</v>
+      </c>
+      <c r="I12">
+        <v>0.03981930214301921</v>
+      </c>
+      <c r="J12">
+        <v>0.03981930214301921</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3195506666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.9586520000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="P12">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="Q12">
+        <v>0.2137686377942223</v>
+      </c>
+      <c r="R12">
+        <v>1.923917740148</v>
+      </c>
+      <c r="S12">
+        <v>0.01989765417992017</v>
+      </c>
+      <c r="T12">
+        <v>0.01989765417992017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6689663333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.006899</v>
+      </c>
+      <c r="I13">
+        <v>0.03981930214301921</v>
+      </c>
+      <c r="J13">
+        <v>0.03981930214301921</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2893163333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.867949</v>
+      </c>
+      <c r="O13">
+        <v>0.4524196490935437</v>
+      </c>
+      <c r="P13">
+        <v>0.4524196490935438</v>
+      </c>
+      <c r="Q13">
+        <v>0.1935428866834445</v>
+      </c>
+      <c r="R13">
+        <v>1.741885980151</v>
+      </c>
+      <c r="S13">
+        <v>0.01801503470269454</v>
+      </c>
+      <c r="T13">
+        <v>0.01801503470269454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04121533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.123646</v>
+      </c>
+      <c r="I14">
+        <v>0.002453286105965348</v>
+      </c>
+      <c r="J14">
+        <v>0.002453286105965349</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03061966666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.091859</v>
+      </c>
+      <c r="O14">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="P14">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="Q14">
+        <v>0.001261999768222222</v>
+      </c>
+      <c r="R14">
+        <v>0.011357997914</v>
+      </c>
+      <c r="S14">
+        <v>0.000117467347981126</v>
+      </c>
+      <c r="T14">
+        <v>0.000117467347981126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04121533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.123646</v>
+      </c>
+      <c r="I15">
+        <v>0.002453286105965348</v>
+      </c>
+      <c r="J15">
+        <v>0.002453286105965349</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3195506666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.9586520000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="P15">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="Q15">
+        <v>0.01317038724355556</v>
+      </c>
+      <c r="R15">
+        <v>0.118533485192</v>
+      </c>
+      <c r="S15">
+        <v>0.001225903918797313</v>
+      </c>
+      <c r="T15">
+        <v>0.001225903918797313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.09177671994532</v>
-      </c>
-      <c r="H11">
-        <v>6.09177671994532</v>
-      </c>
-      <c r="I11">
-        <v>0.4184913339727646</v>
-      </c>
-      <c r="J11">
-        <v>0.4184913339727646</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.175400947686208</v>
-      </c>
-      <c r="N11">
-        <v>0.175400947686208</v>
-      </c>
-      <c r="O11">
-        <v>0.3856131555833494</v>
-      </c>
-      <c r="P11">
-        <v>0.3856131555833494</v>
-      </c>
-      <c r="Q11">
-        <v>1.068503409771189</v>
-      </c>
-      <c r="R11">
-        <v>1.068503409771189</v>
-      </c>
-      <c r="S11">
-        <v>0.1613757638775231</v>
-      </c>
-      <c r="T11">
-        <v>0.1613757638775231</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04121533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.123646</v>
+      </c>
+      <c r="I16">
+        <v>0.002453286105965348</v>
+      </c>
+      <c r="J16">
+        <v>0.002453286105965349</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2893163333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.867949</v>
+      </c>
+      <c r="O16">
+        <v>0.4524196490935437</v>
+      </c>
+      <c r="P16">
+        <v>0.4524196490935438</v>
+      </c>
+      <c r="Q16">
+        <v>0.01192426911711111</v>
+      </c>
+      <c r="R16">
+        <v>0.107318422054</v>
+      </c>
+      <c r="S16">
+        <v>0.001109914839186909</v>
+      </c>
+      <c r="T16">
+        <v>0.001109914839186909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.416384000000001</v>
+      </c>
+      <c r="H17">
+        <v>22.249152</v>
+      </c>
+      <c r="I17">
+        <v>0.4414500709372818</v>
+      </c>
+      <c r="J17">
+        <v>0.4414500709372819</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.03061966666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.091859</v>
+      </c>
+      <c r="O17">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="P17">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="Q17">
+        <v>0.227087205952</v>
+      </c>
+      <c r="R17">
+        <v>2.043784853568</v>
+      </c>
+      <c r="S17">
+        <v>0.02113735082630222</v>
+      </c>
+      <c r="T17">
+        <v>0.02113735082630223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.416384000000001</v>
+      </c>
+      <c r="H18">
+        <v>22.249152</v>
+      </c>
+      <c r="I18">
+        <v>0.4414500709372818</v>
+      </c>
+      <c r="J18">
+        <v>0.4414500709372819</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3195506666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.9586520000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="P18">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="Q18">
+        <v>2.369910451456001</v>
+      </c>
+      <c r="R18">
+        <v>21.329194063104</v>
+      </c>
+      <c r="S18">
+        <v>0.2205920339252146</v>
+      </c>
+      <c r="T18">
+        <v>0.2205920339252146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.416384000000001</v>
+      </c>
+      <c r="H19">
+        <v>22.249152</v>
+      </c>
+      <c r="I19">
+        <v>0.4414500709372818</v>
+      </c>
+      <c r="J19">
+        <v>0.4414500709372819</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2893163333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.867949</v>
+      </c>
+      <c r="O19">
+        <v>0.4524196490935437</v>
+      </c>
+      <c r="P19">
+        <v>0.4524196490935438</v>
+      </c>
+      <c r="Q19">
+        <v>2.145681025472</v>
+      </c>
+      <c r="R19">
+        <v>19.311129229248</v>
+      </c>
+      <c r="S19">
+        <v>0.199720686185765</v>
+      </c>
+      <c r="T19">
+        <v>0.1997206861857651</v>
       </c>
     </row>
   </sheetData>
